--- a/Input/Lyr/LYR_21_animals.xlsx
+++ b/Input/Lyr/LYR_21_animals.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adm\OneDrive\Nauka\Projekty\W_trakcie\OPUS_Effects of animals on oxygen conditions in cryoconite holes\Effects-of-animals-on-oxygen-conditions-in-cryoconite-holes\Input\Lyr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f313c7e1df1b448f/Nauka/Projekty/W_trakcie/OPUS_Effects of animals on oxygen conditions in cryoconite holes/Effects-of-animals-on-oxygen-conditions-in-cryoconite-holes/Input/Lyr/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_5C9F20980A2835FB3DF1648F4F128A9AF2D81CB7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="oxygen_LYR_final" sheetId="1" r:id="rId1"/>
     <sheet name="Kalkulacja_OM" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -212,7 +213,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1032,12 +1033,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,7 +1174,7 @@
         <v>88.764044943820224</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L41" si="0">I3/J3</f>
+        <f t="shared" ref="L3:L40" si="0">I3/J3</f>
         <v>2.2916666666666665</v>
       </c>
       <c r="M3">
@@ -2689,7 +2690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
